--- a/src/main/webapp/medicineInventory.xlsx
+++ b/src/main/webapp/medicineInventory.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/c0i006s/IdeaProjects/medicineInventory/classes/artifacts/medicineInventory_war_exploded/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lnarke/Desktop/Java/medicineInventory/src/main/webapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984B0AE5-862B-234C-B488-53DD1DA2503C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60913C8-15A2-A644-9C8C-692144A6ED2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34460" yWindow="2300" windowWidth="33600" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="medicineDetails" sheetId="1" r:id="rId1"/>
@@ -20,52 +20,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Medicine</t>
+    <t>Sl No</t>
   </si>
   <si>
-    <t>Id</t>
+    <t>Medicine Number</t>
   </si>
   <si>
-    <t>Quantity</t>
+    <t>Medicine ID</t>
   </si>
   <si>
-    <t>Sold</t>
+    <t>Cost of 1 unit</t>
   </si>
   <si>
-    <t>Trial 4</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>436</t>
-  </si>
-  <si>
-    <t>SL</t>
-  </si>
-  <si>
-    <t>paracetamol</t>
-  </si>
-  <si>
-    <t>id01</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>id05</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>Quantity in Stock</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -411,80 +386,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="n">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="n">
-        <v>15.0</v>
       </c>
     </row>
   </sheetData>
